--- a/Spraw2/Dane1.xlsx
+++ b/Spraw2/Dane1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB7C906-FDCF-4315-B3AC-CE66BE9B970F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217E08CC-08A7-4FB5-A35A-590894532467}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t>Splawik:</t>
   </si>
@@ -119,13 +119,19 @@
   </si>
   <si>
     <t>(u(h)=1mm</t>
+  </si>
+  <si>
+    <t>Srednia:</t>
+  </si>
+  <si>
+    <t>Sprawdzic czy dobze pasuja kolumny do wynikow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +154,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +182,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,13 +247,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -248,11 +267,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Accent3" xfId="3" builtinId="37"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -603,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:Q26"/>
+  <dimension ref="A3:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +635,7 @@
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
@@ -1015,6 +1036,11 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="E12" s="3">
         <v>9</v>
       </c>
@@ -1658,6 +1684,57 @@
       <c r="Q26" s="6">
         <f t="shared" si="7"/>
         <v>36.29</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="10">
+        <f>SUM(F17:F26)/10</f>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" ref="G27:N27" si="8">SUM(G17:G26)/10</f>
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="8"/>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="8"/>
+        <v>4.883E-4</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="8"/>
+        <v>2.4118999999999999E-4</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="8"/>
+        <v>4.0911999999999996E-4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" ref="O27" si="9">SUM(O17:O26)/10</f>
+        <v>18.595999999999997</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" ref="P27" si="10">SUM(P17:P26)/10</f>
+        <v>21.62</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" ref="Q27" si="11">SUM(Q17:Q26)/10</f>
+        <v>37.041000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Spraw2/Dane1.xlsx
+++ b/Spraw2/Dane1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217E08CC-08A7-4FB5-A35A-590894532467}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB72145-87F9-4165-9698-7C9B2A5335BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Splawik:</t>
   </si>
   <si>
-    <t>1330/1340[g/cm^3]</t>
-  </si>
-  <si>
     <t>Srednice:</t>
   </si>
   <si>
@@ -64,12 +61,6 @@
     <t>Biala[g]</t>
   </si>
   <si>
-    <t>+/- 1mm</t>
-  </si>
-  <si>
-    <t>Wysokosc(h)=34.1</t>
-  </si>
-  <si>
     <t>Czasy Spadania:</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
     <t>Biala[s]</t>
   </si>
   <si>
-    <t>Niebieska2</t>
-  </si>
-  <si>
     <t>(u(h)=1mm</t>
   </si>
   <si>
@@ -125,6 +113,36 @@
   </si>
   <si>
     <t>Sprawdzic czy dobze pasuja kolumny do wynikow</t>
+  </si>
+  <si>
+    <t>Niebieska</t>
+  </si>
+  <si>
+    <t>+/- 0.05mm</t>
+  </si>
+  <si>
+    <t>1330/1340[kg/m^3]</t>
+  </si>
+  <si>
+    <t>Wysokosc(h)[m]=</t>
+  </si>
+  <si>
+    <t>Gestosc[kg/m^3]=</t>
+  </si>
+  <si>
+    <t>g[m/s^2]=</t>
+  </si>
+  <si>
+    <t>Lepkosc:</t>
+  </si>
+  <si>
+    <t>Rok Bialej=</t>
+  </si>
+  <si>
+    <t>Rok Czarnej=</t>
+  </si>
+  <si>
+    <t>Rok Niebieskiej=</t>
   </si>
 </sst>
 </file>
@@ -329,7 +347,7 @@
     <tableColumn id="2" xr3:uid="{E91DD9E3-CC68-4499-8258-D136C1584826}" name="Biala[mm]" dataCellStyle="Accent1"/>
     <tableColumn id="3" xr3:uid="{31EA2A69-9772-46CD-9EF9-077D33D7AACA}" name="Czarna[mm]" dataCellStyle="Accent1"/>
     <tableColumn id="4" xr3:uid="{E9BE3F0D-3671-40FB-AD41-771B89F211D9}" name="Niebieska[mm]" dataCellStyle="Accent1"/>
-    <tableColumn id="5" xr3:uid="{2B4AD0EC-0E4D-460C-B65D-DC4111D2A413}" name="+/- 1mm" dataCellStyle="Accent1"/>
+    <tableColumn id="5" xr3:uid="{2B4AD0EC-0E4D-460C-B65D-DC4111D2A413}" name="+/- 0.05mm" dataCellStyle="Accent1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -355,7 +373,7 @@
     <tableColumn id="1" xr3:uid="{1997169A-101E-44BF-A82E-A48D51745537}" name="Czasy Spadania[s]:" dataCellStyle="Accent3"/>
     <tableColumn id="2" xr3:uid="{100578B5-3BFC-41FD-BE19-EEA2FA681DE0}" name="Biala" dataDxfId="0" dataCellStyle="Accent3"/>
     <tableColumn id="3" xr3:uid="{23A34B20-336E-41F1-93CF-A5FB205018E5}" name="Czarna" dataCellStyle="Accent3"/>
-    <tableColumn id="4" xr3:uid="{536CA415-8F40-4AF1-8356-9BAD1664F094}" name="Niebieska2" dataCellStyle="Accent3"/>
+    <tableColumn id="4" xr3:uid="{536CA415-8F40-4AF1-8356-9BAD1664F094}" name="Niebieska" dataCellStyle="Accent3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -624,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:Q27"/>
+  <dimension ref="A3:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,46 +676,49 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>29</v>
@@ -706,7 +727,7 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -749,6 +770,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>1330</v>
+      </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
@@ -790,6 +817,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>9.81</v>
+      </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
@@ -831,6 +864,12 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>1821.45</v>
+      </c>
       <c r="E7" s="3">
         <v>4</v>
       </c>
@@ -872,6 +911,12 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>2132.59</v>
+      </c>
       <c r="E8" s="3">
         <v>5</v>
       </c>
@@ -913,6 +958,12 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>1526.1</v>
+      </c>
       <c r="E9" s="3">
         <v>6</v>
       </c>
@@ -1037,7 +1088,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1124,46 +1175,46 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="I16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="J16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="K16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="L16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="N16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="Q16" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.3">
@@ -1688,14 +1739,14 @@
     </row>
     <row r="27" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F27" s="10">
         <f>SUM(F17:F26)/10</f>
         <v>8.0000000000000019E-3</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" ref="G27:N27" si="8">SUM(G17:G26)/10</f>
+        <f t="shared" ref="G27:M27" si="8">SUM(G17:G26)/10</f>
         <v>5.9999999999999993E-3</v>
       </c>
       <c r="H27" s="10">
@@ -1707,7 +1758,7 @@
         <v>1.0000000000000002E-3</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="8"/>
@@ -1722,7 +1773,7 @@
         <v>4.0911999999999996E-4</v>
       </c>
       <c r="N27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" ref="O27" si="9">SUM(O17:O26)/10</f>
@@ -1735,6 +1786,32 @@
       <c r="Q27" s="6">
         <f t="shared" ref="Q27" si="11">SUM(Q17:Q26)/10</f>
         <v>37.041000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29">
+        <f>(F27^2 * D6 * O27* (D7-1330))/(18*D3)</f>
+        <v>0.93480488708504417</v>
+      </c>
+      <c r="H29">
+        <f>(H27^2 * D6 * Q27* (D9-1330))/(18*D3)</f>
+        <v>0.74298901668035178</v>
+      </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29">
+        <f>(G27^2 * D6 * P27* (D8-1330))/(18*D3)</f>
+        <v>0.99837582872727282</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f>(F29+H29+K29)/3</f>
+        <v>0.89205657749755629</v>
       </c>
     </row>
   </sheetData>
